--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{238BD669-D6E4-4BC0-8B32-85D291221BD5}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395919BB-AD48-4045-8568-C46B6773B834}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="30525" yWindow="1890" windowWidth="18075" windowHeight="15015" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>Tricksy Taxonomy</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Leaf Slug</t>
+  </si>
+  <si>
+    <t>Eclectus Parrot</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>46</v>
@@ -736,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
         <v>48</v>
@@ -776,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -817,7 +820,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
         <v>52</v>
@@ -857,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
         <v>54</v>
@@ -897,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
         <v>55</v>
@@ -937,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
         <v>56</v>
@@ -977,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="P16" t="s">
         <v>57</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395919BB-AD48-4045-8568-C46B6773B834}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41776BB9-034E-4640-92E2-E836E118FA6D}"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="1890" windowWidth="18075" windowHeight="15015" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1040,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s">
         <v>58</v>
@@ -1083,7 +1083,7 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
         <v>65</v>
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
@@ -1163,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="P25" t="s">
         <v>67</v>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s">
         <v>69</v>
@@ -1243,7 +1243,7 @@
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s">
         <v>73</v>
@@ -1283,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s">
         <v>75</v>
@@ -1323,7 +1323,7 @@
         <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P33" t="s">
         <v>77</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41776BB9-034E-4640-92E2-E836E118FA6D}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84167A94-C528-45A5-A2E9-9D89EC288F3C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
         <v>48</v>
@@ -776,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1"/>
       <c r="O8" t="s">
@@ -857,7 +857,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
         <v>79</v>
@@ -897,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
         <v>55</v>
@@ -937,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
         <v>62</v>
@@ -977,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
         <v>57</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84167A94-C528-45A5-A2E9-9D89EC288F3C}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09A4F5B-62A1-4608-BD2B-A6998D8EEC77}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1034,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -1080,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
         <v>59</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O23" t="s">
         <v>66</v>
@@ -1160,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
         <v>67</v>
@@ -1200,7 +1200,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O27" t="s">
         <v>69</v>
@@ -1240,7 +1240,7 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O29" t="s">
         <v>74</v>
@@ -1280,7 +1280,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O31" t="s">
         <v>75</v>
@@ -1320,7 +1320,7 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
         <v>77</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09A4F5B-62A1-4608-BD2B-A6998D8EEC77}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE15D6A5-49EF-415A-A444-AABD00D7276A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
         <v>47</v>
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P7" t="s">
         <v>51</v>
@@ -880,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
         <v>60</v>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
         <v>62</v>
@@ -1063,7 +1063,7 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s">
         <v>64</v>
@@ -1143,7 +1143,7 @@
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="P24" t="s">
         <v>71</v>
@@ -1223,7 +1223,7 @@
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="P28" t="s">
         <v>72</v>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s">
         <v>76</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE15D6A5-49EF-415A-A444-AABD00D7276A}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90177B62-A49E-4BCC-849D-2AD23B47484A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="580" yWindow="190" windowWidth="15690" windowHeight="9730" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
         <v>46</v>
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>55</v>
@@ -957,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
         <v>57</v>
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" t="s">
         <v>58</v>
@@ -1140,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
         <v>67</v>
@@ -1220,7 +1220,7 @@
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
         <v>69</v>
@@ -1300,7 +1300,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N32" t="s">
         <v>77</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90177B62-A49E-4BCC-849D-2AD23B47484A}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D1ADC3-4D94-4BCE-B50D-60A7B1FE0E2E}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="190" windowWidth="15690" windowHeight="9730" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -756,10 +756,10 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
         <v>49</v>
@@ -917,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
         <v>61</v>
@@ -1100,10 +1100,10 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
         <v>59</v>
@@ -1260,10 +1260,10 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P30" t="s">
         <v>74</v>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D1ADC3-4D94-4BCE-B50D-60A7B1FE0E2E}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7E04A3-8309-420B-B582-66DE2509F9D0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -316,9 +316,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -837,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
         <v>53</v>
@@ -1180,10 +1183,10 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
@@ -1262,6 +1265,7 @@
       <c r="G30" t="s">
         <v>38</v>
       </c>
+      <c r="K30" s="2"/>
       <c r="M30" t="s">
         <v>77</v>
       </c>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7E04A3-8309-420B-B582-66DE2509F9D0}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE195F78-621F-4124-A65D-A6C88D63B1C5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="6795" yWindow="45" windowWidth="21885" windowHeight="14685" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,12 +639,12 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>16</v>
       </c>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>8</v>
       </c>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>9</v>
       </c>
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>12</v>
       </c>
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>13</v>
       </c>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>11</v>
       </c>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
@@ -912,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>14</v>
       </c>
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>15</v>
       </c>
@@ -1000,10 +1000,10 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
         <v>63</v>
@@ -1012,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>8</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>9</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>5</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>12</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>13</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>6</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>11</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>3</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>14</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>7</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>2</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>15</v>
       </c>

--- a/2022_results.xlsx
+++ b/2022_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE195F78-621F-4124-A65D-A6C88D63B1C5}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD718D55-5864-489B-A4A1-73E9833A0E49}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="45" windowWidth="21885" windowHeight="14685" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Tricksy Taxonomy</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Town of Prairie Dogs</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>Grizzly Bear</t>
@@ -639,12 +636,12 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>1</v>
       </c>
@@ -699,10 +696,10 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -711,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>16</v>
       </c>
@@ -722,16 +719,16 @@
         <v>14</v>
       </c>
       <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
         <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
       </c>
       <c r="Q3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>8</v>
       </c>
@@ -742,16 +739,16 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>9</v>
       </c>
@@ -762,16 +759,16 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>5</v>
       </c>
@@ -782,16 +779,16 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>12</v>
       </c>
@@ -802,16 +799,16 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
         <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
       </c>
       <c r="Q7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>4</v>
       </c>
@@ -823,16 +820,16 @@
       </c>
       <c r="H8" s="1"/>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>13</v>
       </c>
@@ -843,16 +840,16 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>6</v>
       </c>
@@ -863,16 +860,16 @@
         <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>11</v>
       </c>
@@ -883,16 +880,16 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>3</v>
       </c>
@@ -903,16 +900,16 @@
         <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>14</v>
       </c>
@@ -923,16 +920,16 @@
         <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>7</v>
       </c>
@@ -943,16 +940,16 @@
         <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>10</v>
       </c>
@@ -963,16 +960,16 @@
         <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>2</v>
       </c>
@@ -983,16 +980,16 @@
         <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>15</v>
       </c>
@@ -1003,16 +1000,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1034,27 +1031,27 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -1063,288 +1060,288 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="s">
         <v>58</v>
-      </c>
-      <c r="P22" t="s">
-        <v>59</v>
       </c>
       <c r="Q22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q24">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q26">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="2"/>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q34">
         <v>15</v>
